--- a/flow.xlsx
+++ b/flow.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablollh/Documents/GitHub/AmigroBot-mejorado_AI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21958764-55DF-4343-8245-18C3C8D0A4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297FFEF3-3078-3F4C-B617-AE216589C1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{D5E5D6E7-01F2-2648-80E1-0CD4D5B11040}"/>
+    <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{D5E5D6E7-01F2-2648-80E1-0CD4D5B11040}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,13 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="125">
-  <si>
-    <t>Tipo de Nodo</t>
-  </si>
-  <si>
-    <t>Forma del Nodo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="304">
   <si>
     <t>Opciones</t>
   </si>
@@ -53,36 +48,15 @@
     <t>Texto</t>
   </si>
   <si>
-    <t>Rectángulo Redondeado</t>
-  </si>
-  <si>
     <t>Bienvenida e introducción a quien es Amigro.org, que hacemos y como podemos ayudar a los migrantes al ingresar al territorio mexicano en la búsqueda de empleo.</t>
   </si>
   <si>
-    <t>Imagen</t>
-  </si>
-  <si>
-    <t>Datos (E/S)</t>
-  </si>
-  <si>
     <t>Logo Amigro</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Hexágono</t>
-  </si>
-  <si>
     <t>URL TOS</t>
   </si>
   <si>
-    <t>Rombo / Botón</t>
-  </si>
-  <si>
-    <t>Diamante</t>
-  </si>
-  <si>
     <t>Aceptas TOS</t>
   </si>
   <si>
@@ -219,9 +193,6 @@
   </si>
   <si>
     <t>Buenisimo que tienes ya permiso para laborar.</t>
-  </si>
-  <si>
-    <t>Texto / Fecha</t>
   </si>
   <si>
     <t>Cuando tramitaste tu permiso?</t>
@@ -413,13 +384,2075 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <r>
+      <t>"pk"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFEBC88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"model"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFE394DC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"app.pregunta"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"fields"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFE394DC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Bienvenida"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"content"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFE394DC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"¡Bienvenido a Amigro.org! Somos una plataforma que ayuda a migrantes en la búsqueda de empleo y asistencia."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"input_type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFE394DC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"info"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"option"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFE394DC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"texto"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"valid"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>: true,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"yes_or_not"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>: false,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"requires_response"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>: false,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"active"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>: true,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"decision"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"next_si"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFEBC88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"next_no"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>: null</t>
+    </r>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>},</t>
+  </si>
+  <si>
+    <r>
+      <t>"pk"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFEBC88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"model"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFE394DC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"app.subpregunta"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFE394DC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Envio Logo Amigro"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"content"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFE394DC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Aquí te mostramos nuestro logo:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"input_type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFE394DC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"image"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"option"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFE394DC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"URL Imagen"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"next_si"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFEBC88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD6D6DD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>class Person(models.Model):</t>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'text'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Texto'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>('text', 'Texto'),</t>
+  </si>
+  <si>
+    <t>('name', 'Nombre'),</t>
+  </si>
+  <si>
+    <t>apellido_paterno</t>
+  </si>
+  <si>
+    <t>Apellido Paterno</t>
+  </si>
+  <si>
+    <t>('apellido_paterno', 'Apellido Paterno'),</t>
+  </si>
+  <si>
+    <t>apellido_materno</t>
+  </si>
+  <si>
+    <t>Apellido Materno</t>
+  </si>
+  <si>
+    <t>('apellido_materno', 'Apellido Materno'),</t>
+  </si>
+  <si>
+    <t>('nationality', 'Nacionalidad'),</t>
+  </si>
+  <si>
+    <t>fecha_nacimiento</t>
+  </si>
+  <si>
+    <t>DFNacimiento</t>
+  </si>
+  <si>
+    <t>('fecha_nacimiento', 'DFNacimiento'),</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>('sexo', 'Sexo'),</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>('email', 'Email'),</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>('phone', 'Celular'),</t>
+  </si>
+  <si>
+    <t>family_traveling</t>
+  </si>
+  <si>
+    <t>Viaja con Familia</t>
+  </si>
+  <si>
+    <t>('family_traveling', 'Viaja con Familia'),</t>
+  </si>
+  <si>
+    <t>policie</t>
+  </si>
+  <si>
+    <t>Politica Migratoria</t>
+  </si>
+  <si>
+    <t>('policie', 'Politica Migratoria'),</t>
+  </si>
+  <si>
+    <t>Viaja en Grupo</t>
+  </si>
+  <si>
+    <t>('group_aditionality', 'Viaja en Grupo'),</t>
+  </si>
+  <si>
+    <t>Pasaporte</t>
+  </si>
+  <si>
+    <t>('passport', 'Pasaporte'),</t>
+  </si>
+  <si>
+    <t>additional_official_documentation</t>
+  </si>
+  <si>
+    <t>Documentation Adicional</t>
+  </si>
+  <si>
+    <t>('additional_official_documentation', 'Documentation Adicional'),</t>
+  </si>
+  <si>
+    <t>Intencion de Trabajo</t>
+  </si>
+  <si>
+    <t>('int_work', 'Intencion de Trabajo'),</t>
+  </si>
+  <si>
+    <t>Menores</t>
+  </si>
+  <si>
+    <t>('menor', 'Menores'),</t>
+  </si>
+  <si>
+    <t>Refugio</t>
+  </si>
+  <si>
+    <t>('refugio', 'Refugio'),</t>
+  </si>
+  <si>
+    <t>Permiso Hum.</t>
+  </si>
+  <si>
+    <t>('perm_humanitario', 'Permiso Hum.'),</t>
+  </si>
+  <si>
+    <t>Solicitud Refugio</t>
+  </si>
+  <si>
+    <t>('solicita_refugio', 'Solicitud Refugio'),</t>
+  </si>
+  <si>
+    <t>Fecha Cita</t>
+  </si>
+  <si>
+    <t>('cita', 'Fecha Cita'),</t>
+  </si>
+  <si>
+    <t>Contempla Refugio</t>
+  </si>
+  <si>
+    <t>('piensa_solicitar_refugio', 'Contempla Refugio'),</t>
+  </si>
+  <si>
+    <t>Industria</t>
+  </si>
+  <si>
+    <t>('industria_work', 'Industria'),</t>
+  </si>
+  <si>
+    <t>licencia</t>
+  </si>
+  <si>
+    <t>Licencia para Trabajar</t>
+  </si>
+  <si>
+    <t>('licencia', 'Licencia para Trabajar'),</t>
+  </si>
+  <si>
+    <t>CURP</t>
+  </si>
+  <si>
+    <t>('curp', 'CURP'),</t>
+  </si>
+  <si>
+    <t>Fecha Permiso</t>
+  </si>
+  <si>
+    <t>('date_permit', 'Fecha Permiso'),</t>
+  </si>
+  <si>
+    <t>Ubicación</t>
+  </si>
+  <si>
+    <t>('ubication', 'Ubicación'),</t>
+  </si>
+  <si>
+    <t>Experiencia Laboral</t>
+  </si>
+  <si>
+    <t>('work_experience', 'Experiencia Laboral'),</t>
+  </si>
+  <si>
+    <t>saludo</t>
+  </si>
+  <si>
+    <t>Saludo</t>
+  </si>
+  <si>
+    <t>('saludo', 'Saludo'),</t>
+  </si>
+  <si>
+    <t>Archivo / CV</t>
+  </si>
+  <si>
+    <t>('file', 'Archivo / CV'),</t>
+  </si>
+  <si>
+    <t>Permiso Trabajo</t>
+  </si>
+  <si>
+    <t>('per_trabajo', 'Permiso Trabajo'),</t>
+  </si>
+  <si>
+    <t>preferred_language</t>
+  </si>
+  <si>
+    <t>Idioma</t>
+  </si>
+  <si>
+    <t>('preferred_language', 'Idioma'),</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>Habilidades</t>
+  </si>
+  <si>
+    <t>('skills', 'Habilidades'),</t>
+  </si>
+  <si>
+    <t>experience_years</t>
+  </si>
+  <si>
+    <t>Años Experiencia</t>
+  </si>
+  <si>
+    <t>('experience_years', 'Años Experiencia'),</t>
+  </si>
+  <si>
+    <t>desired_job_types</t>
+  </si>
+  <si>
+    <t>Trabajo Ideal</t>
+  </si>
+  <si>
+    <t>('desired_job_types', 'Trabajo Ideal'),</t>
+  </si>
+  <si>
+    <t>nivel_salarial</t>
+  </si>
+  <si>
+    <t>Nivel Salarial Deseado</t>
+  </si>
+  <si>
+    <t>('nivel_salarial', 'Nivel Salarial Deseado'),</t>
+  </si>
+  <si>
+    <r>
+      <t>PK: 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Bienvenida</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Envio Logo Amigro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Envio URL TOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Aceptación de TOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Términos Aceptados</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Términos Rechazados</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Registro - Nombre</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Registro - Apellido Paterno</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Registro - Apellido Materno</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Registro - Fecha de Nacimiento</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Registro - Nacionalidad</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Registro - Sexo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Viajas con Familia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Viajas con Hijos Menores</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Viajas con conocidos o en grupo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Nombre del Conocido</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Apellido del Conocido</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Número de Contacto del Conocido</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Más Conocidos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Solicitaste Refugio / Asilo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Cuentas con permiso humanitario</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Tienes una cita para refugio</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Fecha de la cita</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Solicitar Refugio en México</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Buscas trabajo en México</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Excelente</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Documentación adicional</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Documento del País de Origen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - ¿Qué Documento?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Número del Documento</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Tienes algún otro documento?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Cuentas con permiso para laborar?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 33</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Buenisimo que tienes ya permiso para laborar.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 34</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - ¿Cuándo tramitaste tu permiso?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Vigencia del Permiso</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Cuentas con CURP?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 37</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Captura CURP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 38</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Documento emitido por autoridad mexicana</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 39</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - ¿Qué documento es?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Ubicación Actual</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 41</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Trabajo Actual o Última Posición</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Sector de la Empresa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Ubicación de la Posición</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 44</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Interés en Trabajar en un Sector Específico</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - ¿Te gustaría agregar algún otro trabajo o posición?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 46</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Nombre de la Posición</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Industria de la Empresa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Duración en la Posición</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 49</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Ubicación de la Posición</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Registro Número de Contacto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 51</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - ¿Tienes un correo electrónico?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 52</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Correo Electrónico</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - ¿Podemos contactarte para ofertas?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 54</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Otro Número de Contacto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Acceder a tu Ubicación</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Ubicación Registrada</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 57</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Gracias por completar el proceso</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 58</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Cargar CV</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 59</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Buenísimo, ya tenemos toda la información</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Vacantes ajustadas a tu perfil</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 61</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Mostrar oportunidades</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 62</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Aplicar a una vacante</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 63</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Confirmar aplicación</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Finalizar o continuar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Revisar más vacantes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 66</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Proceso finalizado</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 67</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Recapitulación de la información</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 68</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Información confirmada</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 69</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Modificación de información</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Proceso de recapitulación finalizado</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 71</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Invitar conocido o familiar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 72</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Apellido de la persona invitada</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 73</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Número de contacto de la persona invitada</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 74</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Invitación enviada</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Opción de entrevistas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 76</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Confirmar slot de entrevista</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 77</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Slot de entrevista confirmado</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 78</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Recordatorio de entrevista</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 79</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Te gustaría invitar a más conocidos?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Nombre del segundo conocido</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK: 81</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> - Finalización del proceso</t>
+    </r>
+  </si>
+  <si>
+    <t>Pregunta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -452,6 +2485,64 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD6D6DD"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF82D2CE"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFEBC88D"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFE394DC"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -473,7 +2564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -482,11 +2573,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,8 +2898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38560458-FA04-8B42-8CE6-8522D3F6F937}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -818,34 +2913,30 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="I1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="J1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="K1" s="1"/>
     </row>
@@ -854,17 +2945,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -872,7 +2959,7 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K2" s="3"/>
       <c r="M2" s="4"/>
@@ -885,17 +2972,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -903,7 +2986,7 @@
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K3" s="3"/>
       <c r="N3" s="4"/>
@@ -913,17 +2996,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -931,7 +3010,7 @@
         <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K4" s="3"/>
     </row>
@@ -940,20 +3019,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5">
@@ -969,17 +3044,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -987,7 +3058,7 @@
         <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K6" s="3"/>
     </row>
@@ -996,25 +3067,21 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K7" s="3"/>
     </row>
@@ -1023,29 +3090,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I8">
         <v>8</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -1054,29 +3117,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I9">
         <v>9</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -1085,29 +3144,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I10">
         <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -1116,29 +3171,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I11">
         <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K11" s="3"/>
     </row>
@@ -1147,31 +3198,27 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I12">
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -1180,23 +3227,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I13">
         <v>13</v>
@@ -1211,23 +3254,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I14">
         <v>14</v>
@@ -1242,23 +3281,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I15">
         <v>15</v>
@@ -1273,20 +3308,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16">
@@ -1302,17 +3333,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1320,7 +3347,7 @@
         <v>17</v>
       </c>
       <c r="J17" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -1329,17 +3356,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1347,7 +3370,7 @@
         <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -1356,17 +3379,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1374,7 +3393,7 @@
         <v>19</v>
       </c>
       <c r="J19" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K19" s="3"/>
     </row>
@@ -1383,20 +3402,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20">
@@ -1412,23 +3427,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I21">
         <v>21</v>
@@ -1443,23 +3454,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I22">
         <v>24</v>
@@ -1474,23 +3481,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I23">
         <v>23</v>
@@ -1505,27 +3508,23 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I24">
         <v>25</v>
       </c>
       <c r="J24" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1534,23 +3533,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I25" t="e">
         <v>#N/A</v>
@@ -1565,23 +3560,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I26">
         <v>26</v>
@@ -1596,17 +3587,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -1614,7 +3601,7 @@
         <v>27</v>
       </c>
       <c r="J27" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1623,17 +3610,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -1641,7 +3624,7 @@
         <v>28</v>
       </c>
       <c r="J28" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K28" s="3"/>
     </row>
@@ -1650,20 +3633,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29">
@@ -1679,17 +3658,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -1697,7 +3672,7 @@
         <v>30</v>
       </c>
       <c r="J30" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K30" s="3"/>
     </row>
@@ -1706,27 +3681,23 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I31">
         <v>31</v>
       </c>
       <c r="J31" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K31" s="3"/>
     </row>
@@ -1735,17 +3706,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -1762,23 +3729,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I33">
         <v>33</v>
@@ -1793,17 +3756,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -1811,7 +3770,7 @@
         <v>34</v>
       </c>
       <c r="J34" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K34" s="3"/>
     </row>
@@ -1820,17 +3779,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -1838,7 +3793,7 @@
         <v>35</v>
       </c>
       <c r="J35" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1847,27 +3802,23 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I36">
         <v>34</v>
       </c>
       <c r="J36" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K36" s="3"/>
     </row>
@@ -1876,20 +3827,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37">
@@ -1905,27 +3852,23 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I38">
         <v>38</v>
       </c>
       <c r="J38" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K38" s="3"/>
     </row>
@@ -1934,20 +3877,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39">
@@ -1963,27 +3902,23 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I40">
         <v>40</v>
       </c>
       <c r="J40" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K40" s="3"/>
     </row>
@@ -1992,17 +3927,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -2010,7 +3941,7 @@
         <v>41</v>
       </c>
       <c r="J41" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -2019,17 +3950,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -2037,7 +3964,7 @@
         <v>42</v>
       </c>
       <c r="J42" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -2046,17 +3973,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -2064,7 +3987,7 @@
         <v>43</v>
       </c>
       <c r="J43" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -2073,17 +3996,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -2091,7 +4010,7 @@
         <v>44</v>
       </c>
       <c r="J44" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -2100,27 +4019,23 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45">
         <v>45</v>
       </c>
       <c r="J45" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -2129,23 +4044,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I46">
         <v>46</v>
@@ -2160,27 +4071,23 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I47">
         <v>47</v>
       </c>
       <c r="J47" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -2189,17 +4096,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -2207,7 +4110,7 @@
         <v>48</v>
       </c>
       <c r="J48" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -2216,17 +4119,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -2234,7 +4133,7 @@
         <v>49</v>
       </c>
       <c r="J49" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -2243,27 +4142,23 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I50">
         <v>50</v>
       </c>
       <c r="J50" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K50" s="3"/>
     </row>
@@ -2272,17 +4167,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -2290,7 +4181,7 @@
         <v>51</v>
       </c>
       <c r="J51" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K51" s="3"/>
     </row>
@@ -2299,29 +4190,25 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I52">
         <v>52</v>
       </c>
       <c r="J52" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -2330,17 +4217,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -2348,7 +4231,7 @@
         <v>53</v>
       </c>
       <c r="J53" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K53" s="3"/>
     </row>
@@ -2357,20 +4240,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54">
@@ -2386,17 +4265,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -2404,7 +4279,7 @@
         <v>55</v>
       </c>
       <c r="J55" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K55" s="3"/>
     </row>
@@ -2413,27 +4288,23 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56">
         <v>56</v>
       </c>
       <c r="J56" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K56" s="3"/>
     </row>
@@ -2442,27 +4313,23 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I57">
         <v>57</v>
       </c>
       <c r="J57" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -2471,17 +4338,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -2489,7 +4352,7 @@
         <v>60</v>
       </c>
       <c r="J58" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -2498,20 +4361,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59">
@@ -2527,27 +4386,23 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="I60">
         <v>60</v>
       </c>
       <c r="J60" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -2556,44 +4411,36 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="G61" s="3"/>
-      <c r="H61" s="7"/>
+      <c r="H61" s="3"/>
       <c r="I61">
         <v>61</v>
       </c>
       <c r="J61" t="s">
-        <v>115</v>
-      </c>
-      <c r="K61" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="K61" s="3"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -2601,7 +4448,7 @@
         <v>62</v>
       </c>
       <c r="J62" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2610,17 +4457,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -2628,7 +4471,7 @@
         <v>63</v>
       </c>
       <c r="J63" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K63" s="3"/>
     </row>
@@ -2637,17 +4480,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -2655,7 +4494,7 @@
         <v>5</v>
       </c>
       <c r="J64" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K64" s="3"/>
     </row>
@@ -2667,85 +4506,989 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA68F63-5891-1A4F-B42C-B92C1DFE88BE}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="B12" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="B13" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>111</v>
+      <c r="B14" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598436AE-BC29-794A-8C3C-BE9E47D9F16A}">
+  <dimension ref="A1:L81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="D1" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="L1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="L7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" t="s">
+        <v>159</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" t="s">
+        <v>162</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" t="s">
+        <v>165</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" t="s">
+        <v>169</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="L16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" t="s">
+        <v>176</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" t="s">
+        <v>178</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" t="s">
+        <v>184</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" t="s">
+        <v>186</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" t="s">
+        <v>188</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" t="s">
+        <v>191</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" t="s">
+        <v>193</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" t="s">
+        <v>195</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27" t="s">
+        <v>197</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29" t="s">
+        <v>202</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" t="s">
+        <v>204</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" t="s">
+        <v>206</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D32" t="s">
+        <v>209</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" t="s">
+        <v>212</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C34" t="s">
+        <v>215</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D35" t="s">
+        <v>218</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36" t="s">
+        <v>221</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I37" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I38" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I39" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I40" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I41" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I42" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I43" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I44" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I45" s="12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I46" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I47" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I48" s="12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I49" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I50" s="12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I51" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I52" s="12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I53" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I54" s="12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I55" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I56" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I57" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I58" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I59" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I60" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I61" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I62" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I63" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I64" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I65" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I66" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I67" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I68" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I69" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I70" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I71" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I72" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I73" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I74" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I75" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I76" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I77" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I78" s="12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I79" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I80" s="12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I81" s="12" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
